--- a/Planejamento traducao Rebuild3.xlsx
+++ b/Planejamento traducao Rebuild3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim\Desktop\Projetos\Github\Rebuild-3-Pt_Br-Traducao\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FD369294-5486-41FE-B6CB-2CFD72CAD731}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Backstories</t>
   </si>
@@ -92,34 +93,16 @@
     <t>O que já foi feito</t>
   </si>
   <si>
-    <t>Estimativa da conclusão</t>
-  </si>
-  <si>
     <t>Notas</t>
   </si>
   <si>
-    <t>~~~</t>
-  </si>
-  <si>
-    <t>1 semana</t>
-  </si>
-  <si>
-    <t>Tamanho em linhas do projeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 868 Linhas</t>
-  </si>
-  <si>
-    <t>140 Linhas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54 linhas</t>
+    <t>Tamanho do projeto em linhas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,11 +448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,11 +460,10 @@
     <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -489,248 +471,217 @@
         <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>868</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>140</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>219</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>183</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>

--- a/Planejamento traducao Rebuild3.xlsx
+++ b/Planejamento traducao Rebuild3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim\Desktop\Projetos\Github\Rebuild-3-Pt_Br-Traducao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FD369294-5486-41FE-B6CB-2CFD72CAD731}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{34671BB3-B15A-4484-B53F-E892C280411D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Backstories</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Tamanho do projeto em linhas</t>
+  </si>
+  <si>
+    <t>Necessita revisão</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +498,9 @@
       <c r="C3" s="1">
         <v>140</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
